--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Psen1-Notch4.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Psen1-Notch4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>16.1662981534737</v>
+        <v>16.38931533333333</v>
       </c>
       <c r="H2">
-        <v>16.1662981534737</v>
+        <v>49.167946</v>
       </c>
       <c r="I2">
-        <v>0.1271781819116091</v>
+        <v>0.1272611691689642</v>
       </c>
       <c r="J2">
-        <v>0.1271781819116091</v>
+        <v>0.1272611691689643</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>46.2873121431529</v>
+        <v>47.253984</v>
       </c>
       <c r="N2">
-        <v>46.2873121431529</v>
+        <v>141.761952</v>
       </c>
       <c r="O2">
-        <v>0.9049426252434795</v>
+        <v>0.8884015114449556</v>
       </c>
       <c r="P2">
-        <v>0.9049426252434795</v>
+        <v>0.8884015114449555</v>
       </c>
       <c r="Q2">
-        <v>748.2944888291136</v>
+        <v>774.460444532288</v>
       </c>
       <c r="R2">
-        <v>748.2944888291136</v>
+        <v>6970.144000790592</v>
       </c>
       <c r="S2">
-        <v>0.1150889578127843</v>
+        <v>0.11305901503796</v>
       </c>
       <c r="T2">
-        <v>0.1150889578127843</v>
+        <v>0.11305901503796</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>16.1662981534737</v>
+        <v>16.38931533333333</v>
       </c>
       <c r="H3">
-        <v>16.1662981534737</v>
+        <v>49.167946</v>
       </c>
       <c r="I3">
-        <v>0.1271781819116091</v>
+        <v>0.1272611691689642</v>
       </c>
       <c r="J3">
-        <v>0.1271781819116091</v>
+        <v>0.1272611691689643</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.82043266310992</v>
+        <v>4.022517333333333</v>
       </c>
       <c r="N3">
-        <v>3.82043266310992</v>
+        <v>12.067552</v>
       </c>
       <c r="O3">
-        <v>0.07469157753270081</v>
+        <v>0.07562559124637756</v>
       </c>
       <c r="P3">
-        <v>0.07469157753270081</v>
+        <v>0.07562559124637755</v>
       </c>
       <c r="Q3">
-        <v>61.76225350710452</v>
+        <v>65.92630500979911</v>
       </c>
       <c r="R3">
-        <v>61.76225350710452</v>
+        <v>593.3367450881919</v>
       </c>
       <c r="S3">
-        <v>0.009499139034718876</v>
+        <v>0.009624201161108197</v>
       </c>
       <c r="T3">
-        <v>0.009499139034718876</v>
+        <v>0.009624201161108197</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>16.1662981534737</v>
+        <v>16.38931533333333</v>
       </c>
       <c r="H4">
-        <v>16.1662981534737</v>
+        <v>49.167946</v>
       </c>
       <c r="I4">
-        <v>0.1271781819116091</v>
+        <v>0.1272611691689642</v>
       </c>
       <c r="J4">
-        <v>0.1271781819116091</v>
+        <v>0.1272611691689643</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.729705316449215</v>
+        <v>0.7893206666666668</v>
       </c>
       <c r="N4">
-        <v>0.729705316449215</v>
+        <v>2.367962</v>
       </c>
       <c r="O4">
-        <v>0.01426614366112763</v>
+        <v>0.01483967305870774</v>
       </c>
       <c r="P4">
-        <v>0.01426614366112763</v>
+        <v>0.01483967305870774</v>
       </c>
       <c r="Q4">
-        <v>11.79663370989289</v>
+        <v>12.93642530511689</v>
       </c>
       <c r="R4">
-        <v>11.79663370989289</v>
+        <v>116.427827746052</v>
       </c>
       <c r="S4">
-        <v>0.001814342213712038</v>
+        <v>0.001888514143536327</v>
       </c>
       <c r="T4">
-        <v>0.001814342213712038</v>
+        <v>0.001888514143536327</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>16.1662981534737</v>
+        <v>16.38931533333333</v>
       </c>
       <c r="H5">
-        <v>16.1662981534737</v>
+        <v>49.167946</v>
       </c>
       <c r="I5">
-        <v>0.1271781819116091</v>
+        <v>0.1272611691689642</v>
       </c>
       <c r="J5">
-        <v>0.1271781819116091</v>
+        <v>0.1272611691689643</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.311993888392052</v>
+        <v>0.803095</v>
       </c>
       <c r="N5">
-        <v>0.311993888392052</v>
+        <v>2.409285</v>
       </c>
       <c r="O5">
-        <v>0.006099653562692117</v>
+        <v>0.01509863828272948</v>
       </c>
       <c r="P5">
-        <v>0.006099653562692117</v>
+        <v>0.01509863828272948</v>
       </c>
       <c r="Q5">
-        <v>5.04378622180751</v>
+        <v>13.16217719762333</v>
       </c>
       <c r="R5">
-        <v>5.04378622180751</v>
+        <v>118.45959477861</v>
       </c>
       <c r="S5">
-        <v>0.0007757428503938524</v>
+        <v>0.001921470360719437</v>
       </c>
       <c r="T5">
-        <v>0.0007757428503938524</v>
+        <v>0.001921470360719437</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>23.0370462263</v>
+        <v>16.38931533333333</v>
       </c>
       <c r="H6">
-        <v>23.0370462263</v>
+        <v>49.167946</v>
       </c>
       <c r="I6">
-        <v>0.1812294705850759</v>
+        <v>0.1272611691689642</v>
       </c>
       <c r="J6">
-        <v>0.1812294705850759</v>
+        <v>0.1272611691689643</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>46.2873121431529</v>
+        <v>0.320979</v>
       </c>
       <c r="N6">
-        <v>46.2873121431529</v>
+        <v>0.9629369999999999</v>
       </c>
       <c r="O6">
-        <v>0.9049426252434795</v>
+        <v>0.006034585967229564</v>
       </c>
       <c r="P6">
-        <v>0.9049426252434795</v>
+        <v>0.006034585967229563</v>
       </c>
       <c r="Q6">
-        <v>1066.322949532991</v>
+        <v>5.260626046377999</v>
       </c>
       <c r="R6">
-        <v>1066.322949532991</v>
+        <v>47.345634417402</v>
       </c>
       <c r="S6">
-        <v>0.1640022728827445</v>
+        <v>0.0007679684656402593</v>
       </c>
       <c r="T6">
-        <v>0.1640022728827445</v>
+        <v>0.0007679684656402593</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,55 +841,55 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>23.0370462263</v>
+        <v>23.071008</v>
       </c>
       <c r="H7">
-        <v>23.0370462263</v>
+        <v>69.213024</v>
       </c>
       <c r="I7">
-        <v>0.1812294705850759</v>
+        <v>0.1791437526383466</v>
       </c>
       <c r="J7">
-        <v>0.1812294705850759</v>
+        <v>0.1791437526383466</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.82043266310992</v>
+        <v>47.253984</v>
       </c>
       <c r="N7">
-        <v>3.82043266310992</v>
+        <v>141.761952</v>
       </c>
       <c r="O7">
-        <v>0.07469157753270081</v>
+        <v>0.8884015114449556</v>
       </c>
       <c r="P7">
-        <v>0.07469157753270081</v>
+        <v>0.8884015114449555</v>
       </c>
       <c r="Q7">
-        <v>88.01148386452964</v>
+        <v>1090.197042895872</v>
       </c>
       <c r="R7">
-        <v>88.01148386452964</v>
+        <v>9811.773386062849</v>
       </c>
       <c r="S7">
-        <v>0.01353631505341551</v>
+        <v>0.1591515806098284</v>
       </c>
       <c r="T7">
-        <v>0.01353631505341551</v>
+        <v>0.1591515806098284</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,55 +903,55 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>23.0370462263</v>
+        <v>23.071008</v>
       </c>
       <c r="H8">
-        <v>23.0370462263</v>
+        <v>69.213024</v>
       </c>
       <c r="I8">
-        <v>0.1812294705850759</v>
+        <v>0.1791437526383466</v>
       </c>
       <c r="J8">
-        <v>0.1812294705850759</v>
+        <v>0.1791437526383466</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.729705316449215</v>
+        <v>4.022517333333333</v>
       </c>
       <c r="N8">
-        <v>0.729705316449215</v>
+        <v>12.067552</v>
       </c>
       <c r="O8">
-        <v>0.01426614366112763</v>
+        <v>0.07562559124637756</v>
       </c>
       <c r="P8">
-        <v>0.01426614366112763</v>
+        <v>0.07562559124637755</v>
       </c>
       <c r="Q8">
-        <v>16.81025510661744</v>
+        <v>92.80352957747201</v>
       </c>
       <c r="R8">
-        <v>16.81025510661744</v>
+        <v>835.231766197248</v>
       </c>
       <c r="S8">
-        <v>0.002585445662996796</v>
+        <v>0.01354785221136977</v>
       </c>
       <c r="T8">
-        <v>0.002585445662996796</v>
+        <v>0.01354785221136977</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>23.0370462263</v>
+        <v>23.071008</v>
       </c>
       <c r="H9">
-        <v>23.0370462263</v>
+        <v>69.213024</v>
       </c>
       <c r="I9">
-        <v>0.1812294705850759</v>
+        <v>0.1791437526383466</v>
       </c>
       <c r="J9">
-        <v>0.1812294705850759</v>
+        <v>0.1791437526383466</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.311993888392052</v>
+        <v>0.7893206666666668</v>
       </c>
       <c r="N9">
-        <v>0.311993888392052</v>
+        <v>2.367962</v>
       </c>
       <c r="O9">
-        <v>0.006099653562692117</v>
+        <v>0.01483967305870774</v>
       </c>
       <c r="P9">
-        <v>0.006099653562692117</v>
+        <v>0.01483967305870774</v>
       </c>
       <c r="Q9">
-        <v>7.187417629210785</v>
+        <v>18.210423415232</v>
       </c>
       <c r="R9">
-        <v>7.187417629210785</v>
+        <v>163.893810737088</v>
       </c>
       <c r="S9">
-        <v>0.001105436985919064</v>
+        <v>0.002658434719663076</v>
       </c>
       <c r="T9">
-        <v>0.001105436985919064</v>
+        <v>0.002658434719663076</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>37.2026539397823</v>
+        <v>23.071008</v>
       </c>
       <c r="H10">
-        <v>37.2026539397823</v>
+        <v>69.213024</v>
       </c>
       <c r="I10">
-        <v>0.2926684789202425</v>
+        <v>0.1791437526383466</v>
       </c>
       <c r="J10">
-        <v>0.2926684789202425</v>
+        <v>0.1791437526383466</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>46.2873121431529</v>
+        <v>0.803095</v>
       </c>
       <c r="N10">
-        <v>46.2873121431529</v>
+        <v>2.409285</v>
       </c>
       <c r="O10">
-        <v>0.9049426252434795</v>
+        <v>0.01509863828272948</v>
       </c>
       <c r="P10">
-        <v>0.9049426252434795</v>
+        <v>0.01509863828272948</v>
       </c>
       <c r="Q10">
-        <v>1722.0108554644</v>
+        <v>18.52821116976</v>
       </c>
       <c r="R10">
-        <v>1722.0108554644</v>
+        <v>166.75390052784</v>
       </c>
       <c r="S10">
-        <v>0.2648481816401002</v>
+        <v>0.002704826721697161</v>
       </c>
       <c r="T10">
-        <v>0.2648481816401002</v>
+        <v>0.002704826721697161</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,55 +1089,55 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>37.2026539397823</v>
+        <v>23.071008</v>
       </c>
       <c r="H11">
-        <v>37.2026539397823</v>
+        <v>69.213024</v>
       </c>
       <c r="I11">
-        <v>0.2926684789202425</v>
+        <v>0.1791437526383466</v>
       </c>
       <c r="J11">
-        <v>0.2926684789202425</v>
+        <v>0.1791437526383466</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.82043266310992</v>
+        <v>0.320979</v>
       </c>
       <c r="N11">
-        <v>3.82043266310992</v>
+        <v>0.9629369999999999</v>
       </c>
       <c r="O11">
-        <v>0.07469157753270081</v>
+        <v>0.006034585967229564</v>
       </c>
       <c r="P11">
-        <v>0.07469157753270081</v>
+        <v>0.006034585967229563</v>
       </c>
       <c r="Q11">
-        <v>142.1302342659193</v>
+        <v>7.405309076832</v>
       </c>
       <c r="R11">
-        <v>142.1302342659193</v>
+        <v>66.64778169148799</v>
       </c>
       <c r="S11">
-        <v>0.02185987038464891</v>
+        <v>0.001081058375788211</v>
       </c>
       <c r="T11">
-        <v>0.02185987038464891</v>
+        <v>0.00108105837578821</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,55 +1151,55 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>37.2026539397823</v>
+        <v>37.292974</v>
       </c>
       <c r="H12">
-        <v>37.2026539397823</v>
+        <v>111.878922</v>
       </c>
       <c r="I12">
-        <v>0.2926684789202425</v>
+        <v>0.2895757007844777</v>
       </c>
       <c r="J12">
-        <v>0.2926684789202425</v>
+        <v>0.2895757007844777</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.729705316449215</v>
+        <v>47.253984</v>
       </c>
       <c r="N12">
-        <v>0.729705316449215</v>
+        <v>141.761952</v>
       </c>
       <c r="O12">
-        <v>0.01426614366112763</v>
+        <v>0.8884015114449556</v>
       </c>
       <c r="P12">
-        <v>0.01426614366112763</v>
+        <v>0.8884015114449555</v>
       </c>
       <c r="Q12">
-        <v>27.14697436587948</v>
+        <v>1762.241596708416</v>
       </c>
       <c r="R12">
-        <v>27.14697436587948</v>
+        <v>15860.17437037575</v>
       </c>
       <c r="S12">
-        <v>0.004175250565359882</v>
+        <v>0.2572594902546622</v>
       </c>
       <c r="T12">
-        <v>0.004175250565359882</v>
+        <v>0.2572594902546622</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>37.2026539397823</v>
+        <v>37.292974</v>
       </c>
       <c r="H13">
-        <v>37.2026539397823</v>
+        <v>111.878922</v>
       </c>
       <c r="I13">
-        <v>0.2926684789202425</v>
+        <v>0.2895757007844777</v>
       </c>
       <c r="J13">
-        <v>0.2926684789202425</v>
+        <v>0.2895757007844777</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.311993888392052</v>
+        <v>4.022517333333333</v>
       </c>
       <c r="N13">
-        <v>0.311993888392052</v>
+        <v>12.067552</v>
       </c>
       <c r="O13">
-        <v>0.006099653562692117</v>
+        <v>0.07562559124637756</v>
       </c>
       <c r="P13">
-        <v>0.006099653562692117</v>
+        <v>0.07562559124637755</v>
       </c>
       <c r="Q13">
-        <v>11.60700066117657</v>
+        <v>150.0116343265493</v>
       </c>
       <c r="R13">
-        <v>11.60700066117657</v>
+        <v>1350.104708938944</v>
       </c>
       <c r="S13">
-        <v>0.00178517633013354</v>
+        <v>0.02189933358241025</v>
       </c>
       <c r="T13">
-        <v>0.00178517633013354</v>
+        <v>0.02189933358241024</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,122 +1275,122 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>43.1249604601643</v>
+        <v>37.292974</v>
       </c>
       <c r="H14">
-        <v>43.1249604601643</v>
+        <v>111.878922</v>
       </c>
       <c r="I14">
-        <v>0.3392585002618698</v>
+        <v>0.2895757007844777</v>
       </c>
       <c r="J14">
-        <v>0.3392585002618698</v>
+        <v>0.2895757007844777</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>46.2873121431529</v>
+        <v>0.7893206666666668</v>
       </c>
       <c r="N14">
-        <v>46.2873121431529</v>
+        <v>2.367962</v>
       </c>
       <c r="O14">
-        <v>0.9049426252434795</v>
+        <v>0.01483967305870774</v>
       </c>
       <c r="P14">
-        <v>0.9049426252434795</v>
+        <v>0.01483967305870774</v>
       </c>
       <c r="Q14">
-        <v>1996.138505980752</v>
+        <v>29.43611509966267</v>
       </c>
       <c r="R14">
-        <v>1996.138505980752</v>
+        <v>264.9250358969641</v>
       </c>
       <c r="S14">
-        <v>0.3070094778631421</v>
+        <v>0.004297208725387828</v>
       </c>
       <c r="T14">
-        <v>0.3070094778631421</v>
+        <v>0.004297208725387827</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>43.1249604601643</v>
+        <v>37.292974</v>
       </c>
       <c r="H15">
-        <v>43.1249604601643</v>
+        <v>111.878922</v>
       </c>
       <c r="I15">
-        <v>0.3392585002618698</v>
+        <v>0.2895757007844777</v>
       </c>
       <c r="J15">
-        <v>0.3392585002618698</v>
+        <v>0.2895757007844777</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>3.82043266310992</v>
+        <v>0.803095</v>
       </c>
       <c r="N15">
-        <v>3.82043266310992</v>
+        <v>2.409285</v>
       </c>
       <c r="O15">
-        <v>0.07469157753270081</v>
+        <v>0.01509863828272948</v>
       </c>
       <c r="P15">
-        <v>0.07469157753270081</v>
+        <v>0.01509863828272948</v>
       </c>
       <c r="Q15">
-        <v>164.7560075373355</v>
+        <v>29.94980095453</v>
       </c>
       <c r="R15">
-        <v>164.7560075373355</v>
+        <v>269.54820859077</v>
       </c>
       <c r="S15">
-        <v>0.02533975257593725</v>
+        <v>0.004372198761612734</v>
       </c>
       <c r="T15">
-        <v>0.02533975257593725</v>
+        <v>0.004372198761612733</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,55 +1399,55 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>43.1249604601643</v>
+        <v>37.292974</v>
       </c>
       <c r="H16">
-        <v>43.1249604601643</v>
+        <v>111.878922</v>
       </c>
       <c r="I16">
-        <v>0.3392585002618698</v>
+        <v>0.2895757007844777</v>
       </c>
       <c r="J16">
-        <v>0.3392585002618698</v>
+        <v>0.2895757007844777</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.729705316449215</v>
+        <v>0.320979</v>
       </c>
       <c r="N16">
-        <v>0.729705316449215</v>
+        <v>0.9629369999999999</v>
       </c>
       <c r="O16">
-        <v>0.01426614366112763</v>
+        <v>0.006034585967229564</v>
       </c>
       <c r="P16">
-        <v>0.01426614366112763</v>
+        <v>0.006034585967229563</v>
       </c>
       <c r="Q16">
-        <v>31.46851291944408</v>
+        <v>11.970261501546</v>
       </c>
       <c r="R16">
-        <v>31.46851291944408</v>
+        <v>107.732353513914</v>
       </c>
       <c r="S16">
-        <v>0.004839910502994539</v>
+        <v>0.001747469460404676</v>
       </c>
       <c r="T16">
-        <v>0.004839910502994539</v>
+        <v>0.001747469460404676</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,60 +1461,60 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>43.1249604601643</v>
+        <v>43.83143633333333</v>
       </c>
       <c r="H17">
-        <v>43.1249604601643</v>
+        <v>131.494309</v>
       </c>
       <c r="I17">
-        <v>0.3392585002618698</v>
+        <v>0.3403461170089362</v>
       </c>
       <c r="J17">
-        <v>0.3392585002618698</v>
+        <v>0.3403461170089362</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.311993888392052</v>
+        <v>47.253984</v>
       </c>
       <c r="N17">
-        <v>0.311993888392052</v>
+        <v>141.761952</v>
       </c>
       <c r="O17">
-        <v>0.006099653562692117</v>
+        <v>0.8884015114449556</v>
       </c>
       <c r="P17">
-        <v>0.006099653562692117</v>
+        <v>0.8884015114449555</v>
       </c>
       <c r="Q17">
-        <v>13.45472410072016</v>
+        <v>2071.209991192352</v>
       </c>
       <c r="R17">
-        <v>13.45472410072016</v>
+        <v>18640.88992073117</v>
       </c>
       <c r="S17">
-        <v>0.002069359319795899</v>
+        <v>0.3023640047651606</v>
       </c>
       <c r="T17">
-        <v>0.002069359319795899</v>
+        <v>0.3023640047651606</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,60 +1523,60 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>7.58438373012581</v>
+        <v>43.83143633333333</v>
       </c>
       <c r="H18">
-        <v>7.58438373012581</v>
+        <v>131.494309</v>
       </c>
       <c r="I18">
-        <v>0.05966536832120276</v>
+        <v>0.3403461170089362</v>
       </c>
       <c r="J18">
-        <v>0.05966536832120276</v>
+        <v>0.3403461170089362</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>46.2873121431529</v>
+        <v>4.022517333333333</v>
       </c>
       <c r="N18">
-        <v>46.2873121431529</v>
+        <v>12.067552</v>
       </c>
       <c r="O18">
-        <v>0.9049426252434795</v>
+        <v>0.07562559124637756</v>
       </c>
       <c r="P18">
-        <v>0.9049426252434795</v>
+        <v>0.07562559124637755</v>
       </c>
       <c r="Q18">
-        <v>351.0607371297837</v>
+        <v>176.3127123957298</v>
       </c>
       <c r="R18">
-        <v>351.0607371297837</v>
+        <v>1586.814411561568</v>
       </c>
       <c r="S18">
-        <v>0.05399373504470836</v>
+        <v>0.0257388763272096</v>
       </c>
       <c r="T18">
-        <v>0.05399373504470836</v>
+        <v>0.02573887632720959</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1585,60 +1585,60 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>7.58438373012581</v>
+        <v>43.83143633333333</v>
       </c>
       <c r="H19">
-        <v>7.58438373012581</v>
+        <v>131.494309</v>
       </c>
       <c r="I19">
-        <v>0.05966536832120276</v>
+        <v>0.3403461170089362</v>
       </c>
       <c r="J19">
-        <v>0.05966536832120276</v>
+        <v>0.3403461170089362</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>3.82043266310992</v>
+        <v>0.7893206666666668</v>
       </c>
       <c r="N19">
-        <v>3.82043266310992</v>
+        <v>2.367962</v>
       </c>
       <c r="O19">
-        <v>0.07469157753270081</v>
+        <v>0.01483967305870774</v>
       </c>
       <c r="P19">
-        <v>0.07469157753270081</v>
+        <v>0.01483967305870774</v>
       </c>
       <c r="Q19">
-        <v>28.9756273321321</v>
+        <v>34.59705854758423</v>
       </c>
       <c r="R19">
-        <v>28.9756273321321</v>
+        <v>311.373526928258</v>
       </c>
       <c r="S19">
-        <v>0.004456500483980266</v>
+        <v>0.005050625103213304</v>
       </c>
       <c r="T19">
-        <v>0.004456500483980266</v>
+        <v>0.005050625103213302</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1647,60 +1647,60 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>7.58438373012581</v>
+        <v>43.83143633333333</v>
       </c>
       <c r="H20">
-        <v>7.58438373012581</v>
+        <v>131.494309</v>
       </c>
       <c r="I20">
-        <v>0.05966536832120276</v>
+        <v>0.3403461170089362</v>
       </c>
       <c r="J20">
-        <v>0.05966536832120276</v>
+        <v>0.3403461170089362</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M20">
-        <v>0.729705316449215</v>
+        <v>0.803095</v>
       </c>
       <c r="N20">
-        <v>0.729705316449215</v>
+        <v>2.409285</v>
       </c>
       <c r="O20">
-        <v>0.01426614366112763</v>
+        <v>0.01509863828272948</v>
       </c>
       <c r="P20">
-        <v>0.01426614366112763</v>
+        <v>0.01509863828272948</v>
       </c>
       <c r="Q20">
-        <v>5.534365129863732</v>
+        <v>35.20080736211833</v>
       </c>
       <c r="R20">
-        <v>5.534365129863732</v>
+        <v>316.807266259065</v>
       </c>
       <c r="S20">
-        <v>0.0008511947160643717</v>
+        <v>0.005138762911649453</v>
       </c>
       <c r="T20">
-        <v>0.0008511947160643717</v>
+        <v>0.005138762911649452</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1712,52 +1712,362 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>7.58438373012581</v>
+        <v>43.83143633333333</v>
       </c>
       <c r="H21">
-        <v>7.58438373012581</v>
+        <v>131.494309</v>
       </c>
       <c r="I21">
-        <v>0.05966536832120276</v>
+        <v>0.3403461170089362</v>
       </c>
       <c r="J21">
-        <v>0.05966536832120276</v>
+        <v>0.3403461170089362</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.311993888392052</v>
+        <v>0.320979</v>
       </c>
       <c r="N21">
-        <v>0.311993888392052</v>
+        <v>0.9629369999999999</v>
       </c>
       <c r="O21">
-        <v>0.006099653562692117</v>
+        <v>0.006034585967229564</v>
       </c>
       <c r="P21">
-        <v>0.006099653562692117</v>
+        <v>0.006034585967229563</v>
       </c>
       <c r="Q21">
-        <v>2.366281371019367</v>
+        <v>14.068970602837</v>
       </c>
       <c r="R21">
-        <v>2.366281371019367</v>
+        <v>126.620735425533</v>
       </c>
       <c r="S21">
-        <v>0.0003639380764497617</v>
+        <v>0.002053847901703197</v>
       </c>
       <c r="T21">
-        <v>0.0003639380764497617</v>
+        <v>0.002053847901703197</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>8.200153666666667</v>
+      </c>
+      <c r="H22">
+        <v>24.600461</v>
+      </c>
+      <c r="I22">
+        <v>0.06367326039927532</v>
+      </c>
+      <c r="J22">
+        <v>0.06367326039927532</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>47.253984</v>
+      </c>
+      <c r="N22">
+        <v>141.761952</v>
+      </c>
+      <c r="O22">
+        <v>0.8884015114449556</v>
+      </c>
+      <c r="P22">
+        <v>0.8884015114449555</v>
+      </c>
+      <c r="Q22">
+        <v>387.4899301622081</v>
+      </c>
+      <c r="R22">
+        <v>3487.409371459872</v>
+      </c>
+      <c r="S22">
+        <v>0.05656742077734443</v>
+      </c>
+      <c r="T22">
+        <v>0.05656742077734442</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>8.200153666666667</v>
+      </c>
+      <c r="H23">
+        <v>24.600461</v>
+      </c>
+      <c r="I23">
+        <v>0.06367326039927532</v>
+      </c>
+      <c r="J23">
+        <v>0.06367326039927532</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>4.022517333333333</v>
+      </c>
+      <c r="N23">
+        <v>12.067552</v>
+      </c>
+      <c r="O23">
+        <v>0.07562559124637756</v>
+      </c>
+      <c r="P23">
+        <v>0.07562559124637755</v>
+      </c>
+      <c r="Q23">
+        <v>32.98526026016356</v>
+      </c>
+      <c r="R23">
+        <v>296.867342341472</v>
+      </c>
+      <c r="S23">
+        <v>0.004815327964279754</v>
+      </c>
+      <c r="T23">
+        <v>0.004815327964279754</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>8.200153666666667</v>
+      </c>
+      <c r="H24">
+        <v>24.600461</v>
+      </c>
+      <c r="I24">
+        <v>0.06367326039927532</v>
+      </c>
+      <c r="J24">
+        <v>0.06367326039927532</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.7893206666666668</v>
+      </c>
+      <c r="N24">
+        <v>2.367962</v>
+      </c>
+      <c r="O24">
+        <v>0.01483967305870774</v>
+      </c>
+      <c r="P24">
+        <v>0.01483967305870774</v>
+      </c>
+      <c r="Q24">
+        <v>6.472550758942446</v>
+      </c>
+      <c r="R24">
+        <v>58.25295683048201</v>
+      </c>
+      <c r="S24">
+        <v>0.0009448903669072085</v>
+      </c>
+      <c r="T24">
+        <v>0.0009448903669072083</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>8.200153666666667</v>
+      </c>
+      <c r="H25">
+        <v>24.600461</v>
+      </c>
+      <c r="I25">
+        <v>0.06367326039927532</v>
+      </c>
+      <c r="J25">
+        <v>0.06367326039927532</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M25">
+        <v>0.803095</v>
+      </c>
+      <c r="N25">
+        <v>2.409285</v>
+      </c>
+      <c r="O25">
+        <v>0.01509863828272948</v>
+      </c>
+      <c r="P25">
+        <v>0.01509863828272948</v>
+      </c>
+      <c r="Q25">
+        <v>6.585502408931667</v>
+      </c>
+      <c r="R25">
+        <v>59.269521680385</v>
+      </c>
+      <c r="S25">
+        <v>0.0009613795270507016</v>
+      </c>
+      <c r="T25">
+        <v>0.0009613795270507014</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>8.200153666666667</v>
+      </c>
+      <c r="H26">
+        <v>24.600461</v>
+      </c>
+      <c r="I26">
+        <v>0.06367326039927532</v>
+      </c>
+      <c r="J26">
+        <v>0.06367326039927532</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.320979</v>
+      </c>
+      <c r="N26">
+        <v>0.9629369999999999</v>
+      </c>
+      <c r="O26">
+        <v>0.006034585967229564</v>
+      </c>
+      <c r="P26">
+        <v>0.006034585967229563</v>
+      </c>
+      <c r="Q26">
+        <v>2.632077123773</v>
+      </c>
+      <c r="R26">
+        <v>23.688694113957</v>
+      </c>
+      <c r="S26">
+        <v>0.0003842417636932208</v>
+      </c>
+      <c r="T26">
+        <v>0.0003842417636932207</v>
       </c>
     </row>
   </sheetData>
